--- a/data/trans_dic/P21D_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P21D_2_R-Estudios-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.04066523831086322</v>
+        <v>0.04066523831086323</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.03423036794152932</v>
+        <v>0.03423036794152933</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.03687422065943321</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.020186533895947</v>
+        <v>0.02282399030469369</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02138114959521401</v>
+        <v>0.02084179355644269</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02601575412162179</v>
+        <v>0.02518632200164103</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06581875009742498</v>
+        <v>0.06990813485181537</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05474179051894581</v>
+        <v>0.05013472842083939</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05152690987304487</v>
+        <v>0.05063734211203511</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01585743165330026</v>
+        <v>0.01518924607618537</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01852350098369806</v>
+        <v>0.0181711042893394</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01977932341880711</v>
+        <v>0.0190528712042699</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03793771472378545</v>
+        <v>0.03727319941239375</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0396348621142667</v>
+        <v>0.03808209136465606</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03381859545836203</v>
+        <v>0.03352868946807763</v>
       </c>
     </row>
     <row r="10">
@@ -692,10 +692,10 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.001470056485335713</v>
+        <v>0.001485803170930774</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0007338550541810434</v>
+        <v>0.0007376386816406778</v>
       </c>
     </row>
     <row r="12">
@@ -707,10 +707,10 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.01395968798489361</v>
+        <v>0.01287737711071374</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.007395920442319743</v>
+        <v>0.006886398649356635</v>
       </c>
     </row>
     <row r="13">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01526299118520421</v>
+        <v>0.01529428909527711</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01808442348853818</v>
+        <v>0.01839894940472179</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01836008638423218</v>
+        <v>0.0181267292122698</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02978580344776538</v>
+        <v>0.03073441951845736</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03229797896821056</v>
+        <v>0.03184067692157145</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02842418846500234</v>
+        <v>0.02826609799261887</v>
       </c>
     </row>
     <row r="16">
@@ -906,13 +906,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5120</v>
+        <v>5789</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7777</v>
+        <v>7580</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>16061</v>
+        <v>15549</v>
       </c>
     </row>
     <row r="7">
@@ -923,13 +923,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>16695</v>
+        <v>17733</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>19910</v>
+        <v>18235</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>31811</v>
+        <v>31262</v>
       </c>
     </row>
     <row r="8">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>15215</v>
+        <v>14574</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>18255</v>
+        <v>17908</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>38471</v>
+        <v>37058</v>
       </c>
     </row>
     <row r="11">
@@ -995,13 +995,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>36402</v>
+        <v>35764</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>39061</v>
+        <v>37531</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>65778</v>
+        <v>65214</v>
       </c>
     </row>
     <row r="12">
@@ -1051,10 +1051,10 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="15">
@@ -1066,10 +1066,10 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>4754</v>
+        <v>4386</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5087</v>
+        <v>4736</v>
       </c>
     </row>
     <row r="16">
@@ -1118,13 +1118,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>23816</v>
+        <v>23865</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>30559</v>
+        <v>31091</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>59673</v>
+        <v>58915</v>
       </c>
     </row>
     <row r="19">
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>46477</v>
+        <v>47957</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>54577</v>
+        <v>53804</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>92384</v>
+        <v>91870</v>
       </c>
     </row>
     <row r="20">
